--- a/data/pca/factorExposure/factorExposure_2013-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006498875003653406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001855199564592247</v>
+      </c>
+      <c r="C2">
+        <v>-0.0322987849529817</v>
+      </c>
+      <c r="D2">
+        <v>-0.00485516247315512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001647635637405811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006259185646857043</v>
+      </c>
+      <c r="C4">
+        <v>-0.08433238344585761</v>
+      </c>
+      <c r="D4">
+        <v>-0.0793015351644622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002468681632691355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01407191353982931</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130872655967671</v>
+      </c>
+      <c r="D6">
+        <v>-0.03227856472691008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001315554939445841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004941262790146347</v>
+      </c>
+      <c r="C7">
+        <v>-0.05709293599693387</v>
+      </c>
+      <c r="D7">
+        <v>-0.0355577304976414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001569030805883547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005813306757268016</v>
+      </c>
+      <c r="C8">
+        <v>-0.03812047716868507</v>
+      </c>
+      <c r="D8">
+        <v>-0.04395863708261324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003740247618998041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004410701594214339</v>
+      </c>
+      <c r="C9">
+        <v>-0.07067184094196877</v>
+      </c>
+      <c r="D9">
+        <v>-0.07049497501378151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004652980617540047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005388625386969764</v>
+      </c>
+      <c r="C10">
+        <v>-0.05732814653994048</v>
+      </c>
+      <c r="D10">
+        <v>0.2008004328348079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002648093361292082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005753104788191689</v>
+      </c>
+      <c r="C11">
+        <v>-0.08073644477304959</v>
+      </c>
+      <c r="D11">
+        <v>-0.06060852492326806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0006235751402200311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004132171158272587</v>
+      </c>
+      <c r="C12">
+        <v>-0.06431090743485945</v>
+      </c>
+      <c r="D12">
+        <v>-0.04444530959226407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003304100243258827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00867769716760643</v>
+      </c>
+      <c r="C13">
+        <v>-0.06605841433055872</v>
+      </c>
+      <c r="D13">
+        <v>-0.06379911774862788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001183098173542097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001558884740431188</v>
+      </c>
+      <c r="C14">
+        <v>-0.04623919326357634</v>
+      </c>
+      <c r="D14">
+        <v>-0.006116538734064871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009897089914916327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00603344141222653</v>
+      </c>
+      <c r="C15">
+        <v>-0.04286940956307114</v>
+      </c>
+      <c r="D15">
+        <v>-0.02758204453986184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001129855847083133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005110820528262624</v>
+      </c>
+      <c r="C16">
+        <v>-0.06597184955932986</v>
+      </c>
+      <c r="D16">
+        <v>-0.04551031417482588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001394923653994416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008871751997459317</v>
+      </c>
+      <c r="C20">
+        <v>-0.06584616655036825</v>
+      </c>
+      <c r="D20">
+        <v>-0.04372375555389515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005168407617525317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01003438902075817</v>
+      </c>
+      <c r="C21">
+        <v>-0.02183758996468758</v>
+      </c>
+      <c r="D21">
+        <v>-0.03576959232006915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01729963431418607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006504172959792963</v>
+      </c>
+      <c r="C22">
+        <v>-0.09579320754262956</v>
+      </c>
+      <c r="D22">
+        <v>-0.09652988075755521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01760990365676735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006322631854346541</v>
+      </c>
+      <c r="C23">
+        <v>-0.0965988063725992</v>
+      </c>
+      <c r="D23">
+        <v>-0.09674359899820274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001688127851879538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005451944393530752</v>
+      </c>
+      <c r="C24">
+        <v>-0.07630281042635736</v>
+      </c>
+      <c r="D24">
+        <v>-0.0599227273174045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003674116838230294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003007814115547863</v>
+      </c>
+      <c r="C25">
+        <v>-0.07799976533643076</v>
+      </c>
+      <c r="D25">
+        <v>-0.06494358745874948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005644044662868608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003600302286711971</v>
+      </c>
+      <c r="C26">
+        <v>-0.04144014252460197</v>
+      </c>
+      <c r="D26">
+        <v>-0.02115572764566865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004145361953896295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001078843990375748</v>
+      </c>
+      <c r="C28">
+        <v>-0.1055974274611511</v>
+      </c>
+      <c r="D28">
+        <v>0.3164573544132827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001090719275104662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003188538878273339</v>
+      </c>
+      <c r="C29">
+        <v>-0.0495698792977821</v>
+      </c>
+      <c r="D29">
+        <v>-0.004278880865988671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002973238825882909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009259140639418314</v>
+      </c>
+      <c r="C30">
+        <v>-0.141880661902885</v>
+      </c>
+      <c r="D30">
+        <v>-0.1002196521443476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008231342405127847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006239871324578274</v>
+      </c>
+      <c r="C31">
+        <v>-0.04558397160129297</v>
+      </c>
+      <c r="D31">
+        <v>-0.03105108579774415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000522540453724242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004097062900710146</v>
+      </c>
+      <c r="C32">
+        <v>-0.04139511968175642</v>
+      </c>
+      <c r="D32">
+        <v>-0.01732550052869406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002462981728129937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008322890897645201</v>
+      </c>
+      <c r="C33">
+        <v>-0.08633159537835911</v>
+      </c>
+      <c r="D33">
+        <v>-0.06948371149305091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004198014406247111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004024072143121942</v>
+      </c>
+      <c r="C34">
+        <v>-0.05790396396187517</v>
+      </c>
+      <c r="D34">
+        <v>-0.0506413464960454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002411377485277331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005158621432393593</v>
+      </c>
+      <c r="C35">
+        <v>-0.04051284841230774</v>
+      </c>
+      <c r="D35">
+        <v>-0.01376943566940239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00411282352843971</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001203678371579571</v>
+      </c>
+      <c r="C36">
+        <v>-0.02457877853029455</v>
+      </c>
+      <c r="D36">
+        <v>-0.02203121119052165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00274923464716901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009492198206487669</v>
+      </c>
+      <c r="C38">
+        <v>-0.03490957470116974</v>
+      </c>
+      <c r="D38">
+        <v>-0.01513722042208896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01160719673657852</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005423739142144145</v>
+      </c>
+      <c r="C39">
+        <v>-0.1166300766543696</v>
+      </c>
+      <c r="D39">
+        <v>-0.07100834914724218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008979847740428719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002537243535661254</v>
+      </c>
+      <c r="C40">
+        <v>-0.08825583623455074</v>
+      </c>
+      <c r="D40">
+        <v>-0.01881030665625279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003848947726576324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007261714813792893</v>
+      </c>
+      <c r="C41">
+        <v>-0.03755568120461045</v>
+      </c>
+      <c r="D41">
+        <v>-0.03421735056899494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003170558609026492</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003835379983811738</v>
+      </c>
+      <c r="C43">
+        <v>-0.05256903385274041</v>
+      </c>
+      <c r="D43">
+        <v>-0.02349977266272315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002637055244458625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003363968905576891</v>
+      </c>
+      <c r="C44">
+        <v>-0.1105133581096857</v>
+      </c>
+      <c r="D44">
+        <v>-0.06890254637684891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001561416095875689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002312743187545401</v>
+      </c>
+      <c r="C46">
+        <v>-0.03349996278517036</v>
+      </c>
+      <c r="D46">
+        <v>-0.03071028461718997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004789874184328382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002675059618396517</v>
+      </c>
+      <c r="C47">
+        <v>-0.03741501320890628</v>
+      </c>
+      <c r="D47">
+        <v>-0.02203159079313817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003665509753117268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.0065177814951642</v>
+      </c>
+      <c r="C48">
+        <v>-0.02971228627404288</v>
+      </c>
+      <c r="D48">
+        <v>-0.03179122013101161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01266196108794145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01518750809873675</v>
+      </c>
+      <c r="C49">
+        <v>-0.1820688387794909</v>
+      </c>
+      <c r="D49">
+        <v>-0.01150497145129094</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002916673557389598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003612200579949767</v>
+      </c>
+      <c r="C50">
+        <v>-0.04417743123889829</v>
+      </c>
+      <c r="D50">
+        <v>-0.03386128083277233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.000851768706177128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004434418353011533</v>
+      </c>
+      <c r="C51">
+        <v>-0.02672976502768718</v>
+      </c>
+      <c r="D51">
+        <v>-0.01866785722363951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007865222910838942</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02067002901757739</v>
+      </c>
+      <c r="C53">
+        <v>-0.1689989631439414</v>
+      </c>
+      <c r="D53">
+        <v>-0.03498883495833589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0014267672685479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008663567683462794</v>
+      </c>
+      <c r="C54">
+        <v>-0.05514464201176106</v>
+      </c>
+      <c r="D54">
+        <v>-0.04231150414638163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003923363067559991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009468669386425363</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096442692214419</v>
+      </c>
+      <c r="D55">
+        <v>-0.04294613215218011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003365586519311338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01997203932758312</v>
+      </c>
+      <c r="C56">
+        <v>-0.1747566741952245</v>
+      </c>
+      <c r="D56">
+        <v>-0.03339331301367755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006769150852776889</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01982971305867701</v>
+      </c>
+      <c r="C58">
+        <v>-0.1113074955399342</v>
+      </c>
+      <c r="D58">
+        <v>-0.04664889423658637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006362760877188922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009528698413697233</v>
+      </c>
+      <c r="C59">
+        <v>-0.1620912847800563</v>
+      </c>
+      <c r="D59">
+        <v>0.3110680784233946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003391380407704633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02371354539922892</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207908257873439</v>
+      </c>
+      <c r="D60">
+        <v>-0.03307562602509143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01373994664468414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001657712405990196</v>
+      </c>
+      <c r="C61">
+        <v>-0.09623149775668746</v>
+      </c>
+      <c r="D61">
+        <v>-0.05700530668196992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1678070921614148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445403829844381</v>
+      </c>
+      <c r="C62">
+        <v>-0.09123064198876224</v>
+      </c>
+      <c r="D62">
+        <v>-0.05057618651728188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001125984189450992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00623730259708913</v>
+      </c>
+      <c r="C63">
+        <v>-0.05545133419016869</v>
+      </c>
+      <c r="D63">
+        <v>-0.02332068156506659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001342457593073317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01534369170935279</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049635622312912</v>
+      </c>
+      <c r="D64">
+        <v>-0.05944104631479524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002517644691669195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01783281805721183</v>
+      </c>
+      <c r="C65">
+        <v>-0.1221235556264531</v>
+      </c>
+      <c r="D65">
+        <v>-0.01682751047321756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006881458566031497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01313993997476613</v>
+      </c>
+      <c r="C66">
+        <v>-0.1598944579903105</v>
+      </c>
+      <c r="D66">
+        <v>-0.1144631846703261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004056275523188624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01565695645184526</v>
+      </c>
+      <c r="C67">
+        <v>-0.06587748306368435</v>
+      </c>
+      <c r="D67">
+        <v>-0.02440826408541911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005991869649956916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004635635473106415</v>
+      </c>
+      <c r="C68">
+        <v>-0.08623643767989596</v>
+      </c>
+      <c r="D68">
+        <v>0.2560329655016176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002367704758945015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006132619292427837</v>
+      </c>
+      <c r="C69">
+        <v>-0.0505210100210858</v>
+      </c>
+      <c r="D69">
+        <v>-0.0368128060236765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003147556543052083</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001865565524528529</v>
+      </c>
+      <c r="C70">
+        <v>-0.00277283111564301</v>
+      </c>
+      <c r="D70">
+        <v>-0.001669432900425357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001563354484204216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005775298573375729</v>
+      </c>
+      <c r="C71">
+        <v>-0.09682529833559302</v>
+      </c>
+      <c r="D71">
+        <v>0.3081818219510872</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004235125315663965</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01601585365034254</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527618641595636</v>
+      </c>
+      <c r="D72">
+        <v>-0.02072797044964984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01151087222941409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03036548842469986</v>
+      </c>
+      <c r="C73">
+        <v>-0.2776477542622782</v>
+      </c>
+      <c r="D73">
+        <v>-0.05003812301663956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004264930292167064</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001889008426144117</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055425425059014</v>
+      </c>
+      <c r="D74">
+        <v>-0.03657786343006641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002425696017420965</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01098286824874288</v>
+      </c>
+      <c r="C75">
+        <v>-0.1274375938471064</v>
+      </c>
+      <c r="D75">
+        <v>-0.02577649845080556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009791146635913173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02172642217993708</v>
+      </c>
+      <c r="C76">
+        <v>-0.1499075027779924</v>
+      </c>
+      <c r="D76">
+        <v>-0.0627199285363759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001082137839948642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02377177711978665</v>
+      </c>
+      <c r="C77">
+        <v>-0.1288317582113959</v>
+      </c>
+      <c r="D77">
+        <v>-0.07908373079801248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001086703475479338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01466849747387666</v>
+      </c>
+      <c r="C78">
+        <v>-0.09469169680751359</v>
+      </c>
+      <c r="D78">
+        <v>-0.06915899799161843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02403393664846356</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03752557858743832</v>
+      </c>
+      <c r="C79">
+        <v>-0.1555952700058259</v>
+      </c>
+      <c r="D79">
+        <v>-0.03561726483474731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005202921373231823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01051269516698607</v>
+      </c>
+      <c r="C80">
+        <v>-0.04147029445531572</v>
+      </c>
+      <c r="D80">
+        <v>-0.02967586852281168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001367313757197445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01544362738298482</v>
+      </c>
+      <c r="C81">
+        <v>-0.1282430978828464</v>
+      </c>
+      <c r="D81">
+        <v>-0.04138551343406121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005938763822754623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01980411867625211</v>
+      </c>
+      <c r="C82">
+        <v>-0.1422275771404251</v>
+      </c>
+      <c r="D82">
+        <v>-0.04181294782536919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009256733113361041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01016463870719865</v>
+      </c>
+      <c r="C83">
+        <v>-0.05757800103916622</v>
+      </c>
+      <c r="D83">
+        <v>-0.05544597195056548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01367000322808799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01163093789915522</v>
+      </c>
+      <c r="C84">
+        <v>-0.03603094340610215</v>
+      </c>
+      <c r="D84">
+        <v>0.01072738614844698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01454213509044054</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02813332893204355</v>
+      </c>
+      <c r="C85">
+        <v>-0.1253598865989423</v>
+      </c>
+      <c r="D85">
+        <v>-0.04776033331622973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0006400905666875644</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005827379571881856</v>
+      </c>
+      <c r="C86">
+        <v>-0.04893506570942789</v>
+      </c>
+      <c r="D86">
+        <v>-0.02034626291102021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003994289054492413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01027222047936011</v>
+      </c>
+      <c r="C87">
+        <v>-0.1314353264152452</v>
+      </c>
+      <c r="D87">
+        <v>-0.06898740145707048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01236535601697832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00281612317944954</v>
+      </c>
+      <c r="C88">
+        <v>-0.06729977649377719</v>
+      </c>
+      <c r="D88">
+        <v>-0.01288072696816852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01451186469878807</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001530198540969752</v>
+      </c>
+      <c r="C89">
+        <v>-0.1457882871779585</v>
+      </c>
+      <c r="D89">
+        <v>0.3434268819317731</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001972304533407421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006775406309513983</v>
+      </c>
+      <c r="C90">
+        <v>-0.120299139661343</v>
+      </c>
+      <c r="D90">
+        <v>0.3257654309118635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001390116062963796</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01048512118456689</v>
+      </c>
+      <c r="C91">
+        <v>-0.1032815079563331</v>
+      </c>
+      <c r="D91">
+        <v>-0.02227321102216828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007782212966569042</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006725000097853192</v>
+      </c>
+      <c r="C92">
+        <v>-0.1353498362213367</v>
+      </c>
+      <c r="D92">
+        <v>0.3290499690345539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002116350807085243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004758308873447076</v>
+      </c>
+      <c r="C93">
+        <v>-0.1046578048669772</v>
+      </c>
+      <c r="D93">
+        <v>0.3093168148151872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004156899307672432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02264019458876728</v>
+      </c>
+      <c r="C94">
+        <v>-0.1494660346146183</v>
+      </c>
+      <c r="D94">
+        <v>-0.05376103042746969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004764887666588071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01633437329888949</v>
+      </c>
+      <c r="C95">
+        <v>-0.1264602368633784</v>
+      </c>
+      <c r="D95">
+        <v>-0.05596519212484049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001399286618189824</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03590325007106984</v>
+      </c>
+      <c r="C97">
+        <v>-0.2117130012866798</v>
+      </c>
+      <c r="D97">
+        <v>0.01122039516286568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003469783215062447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03656782674970375</v>
+      </c>
+      <c r="C98">
+        <v>-0.248716952196365</v>
+      </c>
+      <c r="D98">
+        <v>-0.04643334797554783</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9840077800534772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822894868271785</v>
+      </c>
+      <c r="C99">
+        <v>0.1157688122928088</v>
+      </c>
+      <c r="D99">
+        <v>0.02867190872557915</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009964683011653287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00322499188213083</v>
+      </c>
+      <c r="C101">
+        <v>-0.04975106066558804</v>
+      </c>
+      <c r="D101">
+        <v>-0.004372231046221361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
